--- a/birimler.xlsx
+++ b/birimler.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GÖKHAN ELGÜL\PC (D) YEDEK\MERSİN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE94EAC0-68ED-49AE-A8E3-C12DC62F1AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A046FA66-E1C3-4719-9C91-85DD66A6AF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{E900B2A5-0F99-4661-87B7-C6F096001B9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{E900B2A5-0F99-4661-87B7-C6F096001B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="AKDENİZ" sheetId="1" r:id="rId1"/>
     <sheet name="MEZİTLİ" sheetId="2" r:id="rId2"/>
     <sheet name="TOROSLAR" sheetId="4" r:id="rId3"/>
     <sheet name="YENİŞEHİR" sheetId="3" r:id="rId4"/>
+    <sheet name="MÜHENDİS" sheetId="5" r:id="rId5"/>
+    <sheet name="TEKNİKER" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="186">
   <si>
     <t>Adanalıoğlu</t>
   </si>
@@ -525,6 +527,78 @@
   </si>
   <si>
     <t>Yuksekoluk</t>
+  </si>
+  <si>
+    <t>Lokman ALKAN</t>
+  </si>
+  <si>
+    <t>Kemal KORKMAZ</t>
+  </si>
+  <si>
+    <t>Cihan KARA</t>
+  </si>
+  <si>
+    <t>Tevfik YILDIZ</t>
+  </si>
+  <si>
+    <t>Sariye KUŞÇU</t>
+  </si>
+  <si>
+    <t>Mehmet Nejat AY</t>
+  </si>
+  <si>
+    <t>Gülizar YILDIZ</t>
+  </si>
+  <si>
+    <t>Mustafa DIKI</t>
+  </si>
+  <si>
+    <t>H. Nilgün KIYMAÇ</t>
+  </si>
+  <si>
+    <t>Hüseyin KURT</t>
+  </si>
+  <si>
+    <t>Mustafa BAYSAL</t>
+  </si>
+  <si>
+    <t>Engin UĞURLU</t>
+  </si>
+  <si>
+    <t>Özlem AYDINLI</t>
+  </si>
+  <si>
+    <t>Şekip KORKMAZ</t>
+  </si>
+  <si>
+    <t>Dudu POYRAZ</t>
+  </si>
+  <si>
+    <t>Hüseyin POYRAZ</t>
+  </si>
+  <si>
+    <t>Mehmet CEYLAN</t>
+  </si>
+  <si>
+    <t>Nurhan ARSLAN</t>
+  </si>
+  <si>
+    <t>Şehmus ÖZTÜRK</t>
+  </si>
+  <si>
+    <t>Mustafa GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Ahmet ÇELİK</t>
+  </si>
+  <si>
+    <t>Seval ÇELİK</t>
+  </si>
+  <si>
+    <t>Müjde TÜRKMEN</t>
+  </si>
+  <si>
+    <t>Hasan İN</t>
   </si>
 </sst>
 </file>
@@ -918,7 +992,7 @@
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,12 +1002,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -953,12 +1027,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1058,12 +1132,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1121,7 +1195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1141,7 +1215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1166,7 +1240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1181,7 +1255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1196,17 +1270,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1231,12 +1305,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1246,7 +1320,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -1261,7 +1335,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -1276,7 +1350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1291,22 +1365,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -1321,32 +1395,32 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
@@ -1366,7 +1440,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
@@ -1480,7 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A0FED2-4916-4BC8-985F-7008A7A35795}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1499,17 +1573,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>124</v>
       </c>
@@ -1559,12 +1633,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>135</v>
       </c>
@@ -1579,7 +1653,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>138</v>
       </c>
@@ -1624,12 +1698,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>148</v>
       </c>
@@ -1699,7 +1773,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>161</v>
       </c>
@@ -1737,12 +1811,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -1757,12 +1831,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -1785,6 +1859,162 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E50BE2A-4140-45E9-AC5C-C06A83D4BFD2}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEA80E9-7E8F-4C8A-91B3-279885C4650F}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/birimler.xlsx
+++ b/birimler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GÖKHAN ELGÜL\PC (D) YEDEK\MERSİN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A046FA66-E1C3-4719-9C91-85DD66A6AF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BA05C3-2DCC-4DC0-BE92-DD7A33B8BDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{E900B2A5-0F99-4661-87B7-C6F096001B9C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Adanalıoğlu</t>
   </si>
@@ -145,225 +145,9 @@
     <t>Yeşilova</t>
   </si>
   <si>
-    <t>Akpınar</t>
-  </si>
-  <si>
-    <t>Alata</t>
-  </si>
-  <si>
-    <t>Alibeyli</t>
-  </si>
-  <si>
-    <t>Arpaçbahşiş</t>
-  </si>
-  <si>
-    <t>Aslanlı</t>
-  </si>
-  <si>
-    <t>Ayaş</t>
-  </si>
-  <si>
-    <t>Aydınlar</t>
-  </si>
-  <si>
-    <t>Batısandal</t>
-  </si>
-  <si>
-    <t>Çamlı</t>
-  </si>
-  <si>
-    <t>Çarkcılı</t>
-  </si>
-  <si>
-    <t>Çerçili</t>
-  </si>
-  <si>
-    <t>Çeşmeli</t>
-  </si>
-  <si>
-    <t>Çiftepınar</t>
-  </si>
-  <si>
-    <t>Çiriş</t>
-  </si>
-  <si>
-    <t>Dağlı</t>
-  </si>
-  <si>
-    <t>Doğusandal</t>
-  </si>
-  <si>
-    <t>Elbeyli</t>
-  </si>
-  <si>
-    <t>Elvanlı</t>
-  </si>
-  <si>
-    <t>Esenpınar ağlıca</t>
-  </si>
-  <si>
-    <t>Esenpınar merkez</t>
-  </si>
-  <si>
-    <t>Esenpınar poşlu</t>
-  </si>
-  <si>
-    <t>Evdilek</t>
-  </si>
-  <si>
-    <t>Fakılı</t>
-  </si>
-  <si>
-    <t>Gücüş</t>
-  </si>
-  <si>
-    <t>Güneyli</t>
-  </si>
-  <si>
-    <t>Güzeloluk</t>
-  </si>
-  <si>
-    <t>Hacıhalil arpaç</t>
-  </si>
-  <si>
-    <t>Harfilli</t>
-  </si>
-  <si>
-    <t>Hüsametli</t>
-  </si>
-  <si>
-    <t>İlemin</t>
-  </si>
-  <si>
-    <t>Karaahmetli</t>
-  </si>
-  <si>
-    <t>Karahıdırlı</t>
-  </si>
-  <si>
-    <t>Karayakup</t>
-  </si>
-  <si>
-    <t>Kargıcak</t>
-  </si>
-  <si>
-    <t>Kargıpınarı</t>
-  </si>
-  <si>
-    <t>Kayacı</t>
-  </si>
-  <si>
-    <t>Kızılen</t>
-  </si>
-  <si>
-    <t>Kızkalesi merkez</t>
-  </si>
-  <si>
-    <t>Kocahasanlı</t>
-  </si>
-  <si>
-    <t>Koramşalı</t>
-  </si>
-  <si>
-    <t>Kösbucağı</t>
-  </si>
-  <si>
-    <t>Köserelli</t>
-  </si>
-  <si>
-    <t>Koyuncu</t>
-  </si>
-  <si>
-    <t>Kumkuyu akdeniz</t>
-  </si>
-  <si>
-    <t>Kumkuyu ayaş</t>
-  </si>
-  <si>
-    <t>Kumkuyu çanakçı</t>
-  </si>
-  <si>
-    <t>Kumkuyu merkez</t>
-  </si>
-  <si>
-    <t>Kumkuyu tırtar</t>
-  </si>
-  <si>
-    <t>Kumkuyu yemişkumu</t>
-  </si>
-  <si>
-    <t>Kuşluca</t>
-  </si>
-  <si>
-    <t>Küstüllü</t>
-  </si>
-  <si>
-    <t>Lemas</t>
-  </si>
-  <si>
-    <t>Limonlu beldesi</t>
-  </si>
-  <si>
-    <t>Merkez</t>
-  </si>
-  <si>
-    <t>Pınarbaşı</t>
-  </si>
-  <si>
-    <t>Şahna</t>
-  </si>
-  <si>
-    <t>Sarıkaya</t>
-  </si>
-  <si>
-    <t>Sarıyer</t>
-  </si>
-  <si>
-    <t>Sinap</t>
-  </si>
-  <si>
-    <t>Sıraç</t>
-  </si>
-  <si>
-    <t>Sorgun</t>
-  </si>
-  <si>
-    <t>Tabiye</t>
-  </si>
-  <si>
-    <t>Tapureli</t>
-  </si>
-  <si>
     <t>Tırtar</t>
   </si>
   <si>
-    <t>Tömük</t>
-  </si>
-  <si>
-    <t>Toros</t>
-  </si>
-  <si>
-    <t>Türbe</t>
-  </si>
-  <si>
-    <t>Üçtepe</t>
-  </si>
-  <si>
-    <t>Üzümlü</t>
-  </si>
-  <si>
-    <t>Veyselli</t>
-  </si>
-  <si>
-    <t>Yağda</t>
-  </si>
-  <si>
-    <t>Yeniyurt</t>
-  </si>
-  <si>
-    <t>Yüksek</t>
-  </si>
-  <si>
     <t>Bahçe</t>
   </si>
   <si>
@@ -599,6 +383,81 @@
   </si>
   <si>
     <t>Hasan İN</t>
+  </si>
+  <si>
+    <t>Ayşe PEKÇETİN</t>
+  </si>
+  <si>
+    <t>Akarca</t>
+  </si>
+  <si>
+    <t>Bozön</t>
+  </si>
+  <si>
+    <t>Çamlıca</t>
+  </si>
+  <si>
+    <t>Çankaya</t>
+  </si>
+  <si>
+    <t>Çevlik</t>
+  </si>
+  <si>
+    <t>Davultepe</t>
+  </si>
+  <si>
+    <t>Demirışık</t>
+  </si>
+  <si>
+    <t>Doğançay</t>
+  </si>
+  <si>
+    <t>Doğlu</t>
+  </si>
+  <si>
+    <t>Fındıkpınarı</t>
+  </si>
+  <si>
+    <t>Kale</t>
+  </si>
+  <si>
+    <t>Kaleburnu</t>
+  </si>
+  <si>
+    <t>Kocayer</t>
+  </si>
+  <si>
+    <t>Kuyuluk</t>
+  </si>
+  <si>
+    <t>Kuzucu</t>
+  </si>
+  <si>
+    <t>Kuzucubelen</t>
+  </si>
+  <si>
+    <t>Mezitli</t>
+  </si>
+  <si>
+    <t>Pelitkoyağı</t>
+  </si>
+  <si>
+    <t>Sarılar</t>
+  </si>
+  <si>
+    <t>Takanlı</t>
+  </si>
+  <si>
+    <t>Tece</t>
+  </si>
+  <si>
+    <t>Tepeköy</t>
+  </si>
+  <si>
+    <t>Tolköy</t>
+  </si>
+  <si>
+    <t>Volkan İZCİ</t>
   </si>
 </sst>
 </file>
@@ -1172,378 +1031,278 @@
   <dimension ref="A1:A73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A73" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,217 +1324,217 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1547,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,67 +1557,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1868,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E50BE2A-4140-45E9-AC5C-C06A83D4BFD2}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,52 +1640,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1936,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEA80E9-7E8F-4C8A-91B3-279885C4650F}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,72 +1713,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
